--- a/medicine/Handicap/Intouchables_(film)/Intouchables_(film).xlsx
+++ b/medicine/Handicap/Intouchables_(film)/Intouchables_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Intouchables est une comédie dramatique française réalisée par Olivier Nakache et Éric Toledano, sortie en 2011.
 L'histoire est inspirée de la vie de Philippe Pozzo di Borgo (auteur du livre Le Second Souffle en 2001), tétraplégique depuis 1993, et de sa relation avec Abdel Yasmin Sellou, son aide à domicile, dont les rôles sont tenus respectivement par les acteurs François Cluzet et Omar Sy.
-Le générique de fin indique que 5 % des bénéfices réalisés par le film sont reversés à une association pour les personnes paralysées, Simon de Cyrène[1], fondée par Laurent de Cherisey.
+Le générique de fin indique que 5 % des bénéfices réalisés par le film sont reversés à une association pour les personnes paralysées, Simon de Cyrène, fondée par Laurent de Cherisey.
 </t>
         </is>
       </c>
@@ -513,13 +525,50 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film raconte la relation entre deux hommes issus de milieux différents : Driss, homme d'origine sénégalaise vivant en banlieue parisienne, qui vient de purger une peine de six mois de prison pour braquage de bijouterie, et Philippe, riche tétraplégique, qui a engagé le premier venu comme auxiliaire de vie bien qu'il n'ait aucune formation particulière.
-Résumé détaillé
-Le film commence la nuit, au centre de Paris. Driss au volant conduit la Maserati Quattroporte V de Philippe à toute vitesse, en slalomant parmi les voitures. Ils sont bientôt poursuivis par la police et rattrapés sur une sortie de l'A86. Pour justifier ses excès de vitesse, Driss indique aux policiers que Philippe, handicapé et malade, doit être conduit aux urgences ; Philippe trompe les policiers en simulant un malaise, et ceux-ci, pris de panique, les escortent jusqu'à l’hôpital. Les deux hommes jubilent. À peine les policiers ont-ils tourné le dos que Driss et Philippe reprennent leur route. La rencontre des deux hommes est ensuite racontée sous la forme d'un flashback, qui occupe l'essentiel du film.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résumé détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film commence la nuit, au centre de Paris. Driss au volant conduit la Maserati Quattroporte V de Philippe à toute vitesse, en slalomant parmi les voitures. Ils sont bientôt poursuivis par la police et rattrapés sur une sortie de l'A86. Pour justifier ses excès de vitesse, Driss indique aux policiers que Philippe, handicapé et malade, doit être conduit aux urgences ; Philippe trompe les policiers en simulant un malaise, et ceux-ci, pris de panique, les escortent jusqu'à l’hôpital. Les deux hommes jubilent. À peine les policiers ont-ils tourné le dos que Driss et Philippe reprennent leur route. La rencontre des deux hommes est ensuite racontée sous la forme d'un flashback, qui occupe l'essentiel du film.
 Philippe, riche tétraplégique, fait passer un entretien d'embauche pour recruter un auxiliaire de vie. Driss, qui figure parmi les candidats mais ne se fait aucune illusion sur ses chances de décrocher le poste, réclame simplement une signature pour attester de sa recherche d'emploi auprès de l'Assedic afin de toucher des indemnités chômage. Désinvolte, il drague effrontément Magalie, la secrétaire de Philippe, fait des blagues à ce dernier concernant ses goûts musicaux et dérobe un œuf de Fabergé de sa collection. Il est invité à revenir le lendemain matin pour chercher son attestation. Driss, de retour dans sa banlieue, évolue au milieu d’un appartement surpeuplé d’enfants, écoutant du rap comme le jeune rappeur Malsix. Sa tante est excédée puisqu'il n’a pas donné signe de vie durant six mois ; pour l'amadouer, il lui donne l'œuf, mais cette dernière, qui ne connait pas la valeur de l'objet (elle le prend pour un œuf Kinder), le chasse.
-Le lendemain, Driss revient à l'hôtel particulier de Philippe pour chercher sa signature et apprend, à sa grande surprise, qu'il est pris à l'essai. Après avoir découvert l'ampleur du handicap de Philippe, il prend connaissance de son appartement de fonction, qui lui offre un confort sans comparaison avec celui de son HLM. Malgré la gêne que lui inspirent les soins qu'il doit prodiguer à Philippe, Driss s'acclimate peu à peu. Il accompagne Philippe dans tous les instants de sa vie quotidienne et découvre avec étonnement son mode de vie et avec perplexité ses habitudes de collectionneur d'art moderne. Un parent de Philippe met en garde ce dernier sur les antécédents judiciaires de son employé, qui a fait six mois de prison[2]. Cependant, Philippe ne se laisse pas impressionner, amusé par l'effronterie et la bonne humeur permanente de Driss.
+Le lendemain, Driss revient à l'hôtel particulier de Philippe pour chercher sa signature et apprend, à sa grande surprise, qu'il est pris à l'essai. Après avoir découvert l'ampleur du handicap de Philippe, il prend connaissance de son appartement de fonction, qui lui offre un confort sans comparaison avec celui de son HLM. Malgré la gêne que lui inspirent les soins qu'il doit prodiguer à Philippe, Driss s'acclimate peu à peu. Il accompagne Philippe dans tous les instants de sa vie quotidienne et découvre avec étonnement son mode de vie et avec perplexité ses habitudes de collectionneur d'art moderne. Un parent de Philippe met en garde ce dernier sur les antécédents judiciaires de son employé, qui a fait six mois de prison. Cependant, Philippe ne se laisse pas impressionner, amusé par l'effronterie et la bonne humeur permanente de Driss.
 Au fil du temps, Driss et Philippe deviennent plus proches. Le comportement de Driss est tout d'abord fantaisiste et déplaît au personnel de l'hôtel particulier, mais l'aide-soignant improvisé prend progressivement au sérieux ses tâches. Il s'occupe consciencieusement de son patron, qui subit des crises régulières de douleurs psychosomatiques. Philippe se dévoile peu à peu à Driss et lui raconte qu'il est devenu handicapé à la suite d'un accident de parapente et qu'il a également perdu son épouse, Alice, victime d'une terrible maladie.
 Progressivement, Philippe est incité par Driss à mettre un peu d'ordre dans sa vie privée, en recadrant notamment sa fille adoptive Elisa qui se conduit comme une enfant gâtée avec le personnel. De son côté, si Driss est initialement surpris par les goûts de Philippe en matière d'art moderne et d'opéra, il fait ensuite preuve d'ouverture culturelle et se met lui-même à improviser un tableau abstrait.
 Driss découvre que Philippe entretient une relation, purement épistolaire, avec une femme nommée Éléonore, résidant à Dunkerque, qu'il n'a jamais vue et à qui il envoie des poèmes. Il l'incite à la rencontrer mais Philippe, qui craint de confronter sa correspondante à son handicap, tient à conserver une relation intellectuelle. Driss finit par imposer à Philippe d'appeler Éléonore au téléphone, et un envoi de photos est convenu. Driss sélectionne une photo qui, bien qu'avantageuse, révèle le handicap de Philippe, mais ce dernier hésite au dernier moment et demande à sa gouvernante, Yvonne, d'envoyer une photo datant d'avant son accident. Un rendez-vous est pris, et Philippe se rend avec Yvonne, mais Éléonore est en retard, et Philippe craint de se confronter à elle et finit par quitter le café où il devait la rencontrer. Philippe demande ensuite à Driss de venir le chercher pour prendre l’air, mais la promenade se révèle être une balade à bord de son jet privé. Là, il lui remet une enveloppe de 11 000 euros, qu’il a réussi à tirer du tableau de Driss en la faisant passer pour l’œuvre d’un peintre inconnu. Les deux hommes s’amusent de ce bon coup. Ils arrivent en montagne et font du parapente accompagnés de moniteurs. Driss, ayant d'abord peur, finit par apprécier les sensations fortes tandis que Philippe profite du grand air montagnard.
@@ -531,34 +580,36 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre original : Intouchables
-Réalisation, scénario et dialogues : Olivier Nakache et Éric Toledano, d'après le livre Le Second Souffle de Philippe Pozzo di Borgo[3],[4],[5]
+Réalisation, scénario et dialogues : Olivier Nakache et Éric Toledano, d'après le livre Le Second Souffle de Philippe Pozzo di Borgo
 Musique : Ludovico Einaudi
 Direction artistique : Mathieu Vadepied
 Décors : François Emmanuelli
@@ -571,50 +622,52 @@
 Production associée : Dominique Boutonnat, Arnaud Bertrand, Hubert Caillard
 Assistant de production : Robin Noel
 Sociétés de production : Quad production, en coproduction avec Ten Films, Chaocorp, Gaumont et TF1 Films Production, avec la participation de Canal+, CinéCinéma et TF1
-Sociétés de distribution[6] : Gaumont (France) ; Vertigo Films Distribution (Belgique) ; Alliance Vivafilm (Québec) ; Frenetic Films (Suisse romande)
-Budget : 9 611 412 €[7]
+Sociétés de distribution : Gaumont (France) ; Vertigo Films Distribution (Belgique) ; Alliance Vivafilm (Québec) ; Frenetic Films (Suisse romande)
+Budget : 9 611 412 €
 Pays de production :  France
 Langues originales : français, anglais
-Format[8] : couleur - 35 mm / D-Cinema - 1,85:1 (Panavision) - son Dolby Digital
+Format : couleur - 35 mm / D-Cinema - 1,85:1 (Panavision) - son Dolby Digital
 Genre : biopic, comédie, drame
 Durée : 112 minutes
-Dates de sortie[9] :
-Belgique : 4 octobre 2011 (Festival international du film francophone de Namur) ; 2 novembre 2011 (sortie nationale)[10]
-France, Suisse romande : 2 novembre 2011[11]
-Québec : 13 avril 2012[12]
-Classification[13] :
-France : tous publics[14]
-Belgique : tous publics (Alle Leeftijden)[10]
-Suisse romande : interdit aux moins de 10 ans[15]
-Québec : tous publics (G - General Rating)[12]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Dates de sortie :
+Belgique : 4 octobre 2011 (Festival international du film francophone de Namur) ; 2 novembre 2011 (sortie nationale)
+France, Suisse romande : 2 novembre 2011
+Québec : 13 avril 2012
+Classification :
+France : tous publics
+Belgique : tous publics (Alle Leeftijden)
+Suisse romande : interdit aux moins de 10 ans
+Québec : tous publics (G - General Rating)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Omar Sy : Bakari « Driss » Bassari, jeune sénégalais de Paris, auxiliaire de vie de Philippe
 François Cluzet : Philippe, le milliardaire tétraplégique
@@ -658,45 +711,120 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Développement
-Philippe Pozzo di Borgo a consacré un chapitre de son ouvrage autobiographique, Le Second Souffle, à sa relation avec Abdel Yasmin Sellou, son auxiliaire de vie d'origine algérienne, ancien malfrat au comportement parfois problématique, mais accompagnateur précieux.
-Philippe Pozzo di Borgo dit d'Abdel Sellou : « Comme dans le film, il a répondu à mon annonce pour continuer à toucher les Assedic, ensuite il s’est dit que l’hôtel particulier du 7e était un coffre-fort facile à dévaliser. En fait il est resté dix ans »[16]. Dans son livre, il écrit de son accompagnateur : « Il est insupportable, vaniteux, orgueilleux, brutal, inconscient, humain. Sans lui, je serais mort de décomposition. Abdel m'a soigné sans discontinuité comme si j'étais un nourrisson. Attentif au moindre signe, présent pendant mes absences, il m'a délivré quand j'étais prisonnier, protégé quand j'étais faible. Il m'a fait rire quand je craquais. Il est mon diable gardien »[17].
-Les deux hommes témoignent de leur rencontre et de leur relation en janvier 2002[18] dans l'émission de Mireille Dumas Vie privée, vie publique puis fait en 2003 l'objet d'un documentaire également produit par Mireille Dumas, À la vie à la mort. La découverte de ce dernier reportage inspire ensuite les cinéastes Olivier Nakache et Éric Toledano qui, ne se sentant pas encore prêts à aborder le thème, se promettent cependant d'en tirer un film. Quelques années, plus tard, après le succès du film Tellement proches, les deux réalisateurs décident de relancer ce projet et rendent visite à Philippe Pozzo di Borgo. Ce dernier, qui a déjà refusé plusieurs propositions d'adaptation au cinéma, leur recommande alors de traiter son histoire sous l'angle de la comédie : « Si vous faites ce film, il faut que ce soit drôle. Cette histoire doit passer par le prisme de l'humour. Si je n'avais pas rencontré Abdel, je serais mort. »[19]
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Pozzo di Borgo a consacré un chapitre de son ouvrage autobiographique, Le Second Souffle, à sa relation avec Abdel Yasmin Sellou, son auxiliaire de vie d'origine algérienne, ancien malfrat au comportement parfois problématique, mais accompagnateur précieux.
+Philippe Pozzo di Borgo dit d'Abdel Sellou : « Comme dans le film, il a répondu à mon annonce pour continuer à toucher les Assedic, ensuite il s’est dit que l’hôtel particulier du 7e était un coffre-fort facile à dévaliser. En fait il est resté dix ans ». Dans son livre, il écrit de son accompagnateur : « Il est insupportable, vaniteux, orgueilleux, brutal, inconscient, humain. Sans lui, je serais mort de décomposition. Abdel m'a soigné sans discontinuité comme si j'étais un nourrisson. Attentif au moindre signe, présent pendant mes absences, il m'a délivré quand j'étais prisonnier, protégé quand j'étais faible. Il m'a fait rire quand je craquais. Il est mon diable gardien ».
+Les deux hommes témoignent de leur rencontre et de leur relation en janvier 2002 dans l'émission de Mireille Dumas Vie privée, vie publique puis fait en 2003 l'objet d'un documentaire également produit par Mireille Dumas, À la vie à la mort. La découverte de ce dernier reportage inspire ensuite les cinéastes Olivier Nakache et Éric Toledano qui, ne se sentant pas encore prêts à aborder le thème, se promettent cependant d'en tirer un film. Quelques années, plus tard, après le succès du film Tellement proches, les deux réalisateurs décident de relancer ce projet et rendent visite à Philippe Pozzo di Borgo. Ce dernier, qui a déjà refusé plusieurs propositions d'adaptation au cinéma, leur recommande alors de traiter son histoire sous l'angle de la comédie : « Si vous faites ce film, il faut que ce soit drôle. Cette histoire doit passer par le prisme de l'humour. Si je n'avais pas rencontré Abdel, je serais mort. »
 Le film s'inspire de l'histoire des deux hommes mais la présente dans une version romancée et condensée dans le temps. D'algérien, le personnage de l'auxiliaire de vie devient sénégalais.
 L'ouvrage Le Second Souffle a été réédité en 2011 à l'occasion de la sortie d'Intouchables, augmenté d'un deuxième livre, intitulé Le Diable gardien, dans lequel Philippe Pozzo di Borgo revient plus en détail sur sa relation avec Abdel Sellou.
-Philippe Pozzo di Borgo se dit pour sa part enchanté par le film : « Les deux réalisateurs ont un humour terrible. Dans notre état, on aime les gens qui rigolent, pas le misérabilisme. (...) Bien sûr, notre histoire est traitée à la sauce cinéma. Driss est un peu moins rugueux qu’Abdel, plus souriant. Et puis Abdel ne dansait pas, il tapait ! C’était un chef de bande, beaucoup plus dur que dans le film. (...) Même le titre du film, Intouchables, est le bon. Et vous savez pourquoi ? À cause de la lettre S. Vous avez deux intouchables, paria chacun dans son genre, qui, pris séparément, sont infréquentables et, une fois ensemble, sont indestructibles »[20].
-Distribution des rôles
-Omar Sy est choisi après avoir tourné dans les précédentes réalisations de Toledano et Nakache, Nos jours heureux et Tellement proches[21].
-Daniel Auteuil était initialement pressenti pour le rôle de Philippe qu'il décline pour La Fille du puisatier[22].
-Lieux de tournage
-L'hôtel d'Avaray, siège de l'ambassade des Pays-Bas à Paris, a servi de lieu de tournage.
-Le Théâtre national de l'Opéra-Comique[23]
+Philippe Pozzo di Borgo se dit pour sa part enchanté par le film : « Les deux réalisateurs ont un humour terrible. Dans notre état, on aime les gens qui rigolent, pas le misérabilisme. (...) Bien sûr, notre histoire est traitée à la sauce cinéma. Driss est un peu moins rugueux qu’Abdel, plus souriant. Et puis Abdel ne dansait pas, il tapait ! C’était un chef de bande, beaucoup plus dur que dans le film. (...) Même le titre du film, Intouchables, est le bon. Et vous savez pourquoi ? À cause de la lettre S. Vous avez deux intouchables, paria chacun dans son genre, qui, pris séparément, sont infréquentables et, une fois ensemble, sont indestructibles ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Distribution des rôles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omar Sy est choisi après avoir tourné dans les précédentes réalisations de Toledano et Nakache, Nos jours heureux et Tellement proches.
+Daniel Auteuil était initialement pressenti pour le rôle de Philippe qu'il décline pour La Fille du puisatier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lieux de tournage</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'hôtel d'Avaray, siège de l'ambassade des Pays-Bas à Paris, a servi de lieu de tournage.
+Le Théâtre national de l'Opéra-Comique
 Les dernières scènes du film se déroulent dans le Grand Hôtel de Cabourg.
 Les scènes de banlieue se situent dans la zone HLM de Bondy nord (Seine-Saint-Denis).
 La scène où la Maserati est arrêtée par la police a été tournée à la sortie 35 de l'A86 à Chatou.
@@ -705,31 +833,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>La bande originale du film est signée par Ludovico Einaudi. Les œuvres interprétées dans le Blind Test le sont par le Capriccio Français sous la direction de Philippe Le Fèvre.
 Autres œuvres entendues dans le film :
@@ -745,50 +875,168 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Exploitation</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Box-office
-Box-office France (détail hebdomadaire)
-Dès la première semaine d'exploitation, le film est numéro un avec 2 205 432 entrées, devant Les Aventures de Tintin : Le Secret de La Licorne. Sur sa première journée en France, le film a réalisé 191 342 entrées, soit le troisième meilleur premier jour de l'année, derrière Harry Potter et les Reliques de la Mort et Les Aventures de Tintin : Le Secret de La Licorne[105]. Les 2e, 3e et 4e semaines d'exploitation sont meilleures que la première et le film reste 1er du box-office hebdomadaire français durant dix semaines.
-Intouchables devient vendredi 25 novembre 2011 le film le plus vu de l'année en France en dépassant la barre des 8,2 millions d'entrées, détrônant ainsi Rien à déclarer de Dany Boon[106]. Le 3 janvier 2012, avec 16 888 372 entrées en 9 semaines d'exploitation, le film se place en 5e position dans l'histoire du box office français et à la 3e place des films français de ce même classement. Le 8 janvier 2012, le film dépasse les 17 272 987 d'entrées de La Grande Vadrouille et se place à la 4e position dans l'histoire du box office français et à la 2e place des films français[107]. Le 26 mars 2012, le film est à 19 271 778 entrées exactement[108], après 21 semaines complètes d'exploitation.
-Exploitation internationale
-Monde
-Avant 1996 (liste non exhaustive et nombres d'entrées incomplets) :
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Box-office France (détail hebdomadaire)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès la première semaine d'exploitation, le film est numéro un avec 2 205 432 entrées, devant Les Aventures de Tintin : Le Secret de La Licorne. Sur sa première journée en France, le film a réalisé 191 342 entrées, soit le troisième meilleur premier jour de l'année, derrière Harry Potter et les Reliques de la Mort et Les Aventures de Tintin : Le Secret de La Licorne. Les 2e, 3e et 4e semaines d'exploitation sont meilleures que la première et le film reste 1er du box-office hebdomadaire français durant dix semaines.
+Intouchables devient vendredi 25 novembre 2011 le film le plus vu de l'année en France en dépassant la barre des 8,2 millions d'entrées, détrônant ainsi Rien à déclarer de Dany Boon. Le 3 janvier 2012, avec 16 888 372 entrées en 9 semaines d'exploitation, le film se place en 5e position dans l'histoire du box office français et à la 3e place des films français de ce même classement. Le 8 janvier 2012, le film dépasse les 17 272 987 d'entrées de La Grande Vadrouille et se place à la 4e position dans l'histoire du box office français et à la 2e place des films français. Le 26 mars 2012, le film est à 19 271 778 entrées exactement, après 21 semaines complètes d'exploitation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Monde</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Avant 1996 (liste non exhaustive et nombres d'entrées incomplets) :
 Les Quatre Charlots mousquetaires (1974) : 58 790 139 entrées.
 Les bidasses s'en vont en guerre (1974) : 54 254 509 entrées.
 Les Fugitifs (1986) : 27 608 388 entrées.
 Gibraltar (1938) : 21 300 000 entrées.
-Le Comte de Monte-Cristo, 1re époque : Edmond Dantès (1943) : 18 000 000 d'entrées[116].
-Le Comte de Monte-Cristo, 2e époque : Le châtiment (1943) : 18 000 000 d'entrées[117].
-Hors de France
-Au 31 janvier 2015, avec 32 millions d'entrées hors de France, il est le plus gros succès à l’international d'un film français tourné en langue française depuis au moins 1994 devant Le Fabuleux Destin d'Amélie Poulain et ses 23,1 millions d'entrées et le 4e toutes langues prises en compte[111].
-Liste complète des dates de sortie Sur le site unifrance.org.
-Union européenne
-Top 20 des films de l'UE-27 entre 1996 et 2013 (entrées) :
+Le Comte de Monte-Cristo, 1re époque : Edmond Dantès (1943) : 18 000 000 d'entrées.
+Le Comte de Monte-Cristo, 2e époque : Le châtiment (1943) : 18 000 000 d'entrées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hors de France</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Au 31 janvier 2015, avec 32 millions d'entrées hors de France, il est le plus gros succès à l’international d'un film français tourné en langue française depuis au moins 1994 devant Le Fabuleux Destin d'Amélie Poulain et ses 23,1 millions d'entrées et le 4e toutes langues prises en compte.
+Liste complète des dates de sortie Sur le site unifrance.org.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Union européenne</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Top 20 des films de l'UE-27 entre 1996 et 2013 (entrées) :
 Titanic (1997) : 96 876 542
 Avatar (2009) : 75 060 770
 Le Seigneur des anneaux : La Communauté de l'anneau (2001) : 57 483 113
@@ -808,154 +1056,1509 @@
 Harry Potter et le Prisonnier d'Azkaban (2004) : 38 672 820
 Harry Potter et les Reliques de la Mort, partie 2 (2011) : 37 877 486
 L'Âge de glace 2 (2006) : 37 818 404
-Harry Potter et l'Ordre du phénix (2007) : 36 864 205
-Allemagne
-En Allemagne, c'est, au 21 septembre 2014, le film français ayant fait le plus d'entrées depuis au moins 1968 (entrées RDA non incluses)[118] et le film toutes nationalités prises en compte sorti en 2012 ayant fait le plus d'entrées[119].
-Italie
-En Italie, c'est le film français tourné en langue française ou toutes autres langues ayant fait le plus d'entrées depuis au moins 1997 et le 4e film (voire le 3e film si l'on tient compte de la source Media[120] et leur 2 823 438 entrées) toutes nationalités ayant fait le plus d'entrées parmi les films sortis en 2012 :
-Espagne
-En Espagne, c'est le 3e film en langue française ayant fait le plus d'entrées depuis au moins 1961 derrière Astérix et Obélix contre César (3 741 408 entrées[127],[128]) sorti en 1999 et Emmanuelle (3 680 502 entrées) sorti en 1978[129] et le 5e film sorti en 2012, toutes nationalités, ayant fait le plus d'entrées :
-Corée du Sud
-En Corée du Sud, c'est le film en langue française ayant fait le plus d'entrées depuis le début des années 1990 et le 32e film, toutes nationalités, des films sortis en 2012[134],[30].
-Amérique du Nord
-Aux États-Unis, au Canada, à Porto Rico et au Guam (domestic market) :
-À noter que le parc de salles indépendantes aux États-Unis (où les films français sont diffusés) a bien diminué depuis 2001 (baisse de 15 % rien qu'entre 2008 et 2012[137]), le succès d'Intouchables dans ces conditions peut être considéré comme supérieur à celui du Pacte des loups.
-Mexique
-Au Mexique, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis au moins 1997 (au 8 novembre 2012)[138],[139],[140].
-Suisse
-En Suisse, au 27 décembre 2013, c'est le film français ayant fait le plus d'entrées depuis au moins 1995[141], et le 2e toutes nationalités confondues derrière Titanic.
-Japon
-Au Japon, au 12 mai 2013, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis au moins 1997[157],[139],[140],[158] ou depuis qu'uniFrance recense les données au Japon (1994?)[159], et le 36e en yens des films sortis en 2012[36],[160] :
-Pays-Bas
-Aux Pays-Bas, au 31 décembre 2012, c'est le film français ayant fait le plus d'entrées depuis au moins 1991[163],[164],[165],[166], le 2e en entrées, toutes nationalités, des films sortis en 2012 derrière Skyfall[167] et le 24e en entrées, toutes nationalités, depuis 1991[165],[168].
-Brésil
-Au Brésil, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis le début des années 1990 (au 4 novembre 2012), et le 35e[39] film sorti en 2012, toutes nationalités prises en compte, ayant fait le plus d'entrées.
-Belgique
-En Belgique, c'est, au 31 mars 2013, le 2e film français tourné en langue française ou toutes autres langues ayant fait le plus d'entrées depuis au moins 1996 derrière Bienvenue chez les Ch'tis et ses 1 148 179 entrées.
-Pologne
-En Pologne, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis au moins 1998 (de ces 20 dernières années selon uniFrance[171]) et le 9e, toutes nationalités, des films sortis en 2012[172].
-Autriche
-En Autriche, au 31 octobre 2014[47], c'est le film français ayant fait le plus d'entrées depuis le début des années 1990.
-Danemark
-Au Danemark, c'est le film non local (danois ou suédois) et non anglophone ayant fait le plus d'entrées de tous les temps (au 23 juin 2013).
-Australie
-En Australie, c'est le 2e film français tourné en langue française ayant fait le plus d'entrées depuis au moins 1997 derrière Le Fabuleux Destin d'Amélie Poulain (2001) et ses 763 300 entrées,[177],[178],[179],[180],[181].
-Colombie
-En Colombie, c'est film français tourné en langue française ayant fait le plus d'entrées jamais recensé par uniFrance films (depuis au moins 1994) ou depuis au moins 1997 selon sources ci-après[182],[183],[139],[140] (au 16 juin 2013).
-Suède
-En Suède : au 30 septembre 2014, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis au moins 1996[184],[169].
-Israël
-En Israël, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis le début des années 2000[194],[195] ainsi que le film ayant fait le plus d'entrées parmi les films sortis en 2012 aux côtés de Skyfall et de Madagascar 3[196],[47],[197],[198].
-Québec
-Royaume-Uni
-Portugal
-Au Portugal, c'est le 4e film français tourné en langue française ayant fait le plus d'entrées depuis le début des années 1990 :
-Russie
-En Russie, avec 214 080 entrées, il est, au 9 juin 2013, seulement le 134e film de l'année 2012 sur 375 films sortis[235], le 29e film français tourné en langue française depuis la Perestroïka et le 3e film français tourné en langue française des films sortis en 2012[236] :
-Venezuela
-Au Venezuela, c'est le film français tourné en langue française ayant fait le plus d'entrées jamais recensées par uniFrance (depuis 1994), ou depuis au moins l'an 2000[256],[139],[140].
-Norvège
-Grèce
-En Grèce, le film est classé 22e film des films sortis en 2012 en nombre d'entrées[263],[264] :
-Hong Kong
-À Hong Kong, c'est le film français tourné en langue française ayant fait le plus d'entrées jamais recensées par uniFrance ou depuis au moins 1997[322].
-Argentine
-En Argentine, il est le 73e film ayant fait le plus d'entrées parmi les films sortis en 2012[323].
-Nouvelle-Zélande
-En Nouvelle-Zélande, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis le début des années 2000.
+Harry Potter et l'Ordre du phénix (2007) : 36 864 205</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Allemagne, c'est, au 21 septembre 2014, le film français ayant fait le plus d'entrées depuis au moins 1968 (entrées RDA non incluses) et le film toutes nationalités prises en compte sorti en 2012 ayant fait le plus d'entrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Italie, c'est le film français tourné en langue française ou toutes autres langues ayant fait le plus d'entrées depuis au moins 1997 et le 4e film (voire le 3e film si l'on tient compte de la source Media et leur 2 823 438 entrées) toutes nationalités ayant fait le plus d'entrées parmi les films sortis en 2012 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Espagne</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Espagne, c'est le 3e film en langue française ayant fait le plus d'entrées depuis au moins 1961 derrière Astérix et Obélix contre César (3 741 408 entrées,) sorti en 1999 et Emmanuelle (3 680 502 entrées) sorti en 1978 et le 5e film sorti en 2012, toutes nationalités, ayant fait le plus d'entrées :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Corée du Sud</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Corée du Sud, c'est le film en langue française ayant fait le plus d'entrées depuis le début des années 1990 et le 32e film, toutes nationalités, des films sortis en 2012,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, au Canada, à Porto Rico et au Guam (domestic market) :
+À noter que le parc de salles indépendantes aux États-Unis (où les films français sont diffusés) a bien diminué depuis 2001 (baisse de 15 % rien qu'entre 2008 et 2012), le succès d'Intouchables dans ces conditions peut être considéré comme supérieur à celui du Pacte des loups.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Mexique</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Mexique, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis au moins 1997 (au 8 novembre 2012).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Suisse, au 27 décembre 2013, c'est le film français ayant fait le plus d'entrées depuis au moins 1995, et le 2e toutes nationalités confondues derrière Titanic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Japon</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, au 12 mai 2013, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis au moins 1997 ou depuis qu'uniFrance recense les données au Japon (1994?), et le 36e en yens des films sortis en 2012, :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Pays-Bas</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux Pays-Bas, au 31 décembre 2012, c'est le film français ayant fait le plus d'entrées depuis au moins 1991 le 2e en entrées, toutes nationalités, des films sortis en 2012 derrière Skyfall et le 24e en entrées, toutes nationalités, depuis 1991,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Brésil</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Brésil, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis le début des années 1990 (au 4 novembre 2012), et le 35e film sorti en 2012, toutes nationalités prises en compte, ayant fait le plus d'entrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, c'est, au 31 mars 2013, le 2e film français tourné en langue française ou toutes autres langues ayant fait le plus d'entrées depuis au moins 1996 derrière Bienvenue chez les Ch'tis et ses 1 148 179 entrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pologne</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Pologne, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis au moins 1998 (de ces 20 dernières années selon uniFrance) et le 9e, toutes nationalités, des films sortis en 2012.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Autriche</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Autriche, au 31 octobre 2014, c'est le film français ayant fait le plus d'entrées depuis le début des années 1990.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Danemark</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Danemark, c'est le film non local (danois ou suédois) et non anglophone ayant fait le plus d'entrées de tous les temps (au 23 juin 2013).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Australie, c'est le 2e film français tourné en langue française ayant fait le plus d'entrées depuis au moins 1997 derrière Le Fabuleux Destin d'Amélie Poulain (2001) et ses 763 300 entrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Colombie</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Colombie, c'est film français tourné en langue française ayant fait le plus d'entrées jamais recensé par uniFrance films (depuis au moins 1994) ou depuis au moins 1997 selon sources ci-après (au 16 juin 2013).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Suède</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Suède : au 30 septembre 2014, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis au moins 1996,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Israël</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Israël, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis le début des années 2000, ainsi que le film ayant fait le plus d'entrées parmi les films sortis en 2012 aux côtés de Skyfall et de Madagascar 3.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Portugal, c'est le 4e film français tourné en langue française ayant fait le plus d'entrées depuis le début des années 1990 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Russie</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Russie, avec 214 080 entrées, il est, au 9 juin 2013, seulement le 134e film de l'année 2012 sur 375 films sortis, le 29e film français tourné en langue française depuis la Perestroïka et le 3e film français tourné en langue française des films sortis en 2012 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Venezuela, c'est le film français tourné en langue française ayant fait le plus d'entrées jamais recensées par uniFrance (depuis 1994), ou depuis au moins l'an 2000.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Grèce</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Grèce, le film est classé 22e film des films sortis en 2012 en nombre d'entrées, :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Hong Kong, c'est le film français tourné en langue française ayant fait le plus d'entrées jamais recensées par uniFrance ou depuis au moins 1997.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Argentine</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Argentine, il est le 73e film ayant fait le plus d'entrées parmi les films sortis en 2012.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Zélande, c'est le film français tourné en langue française ayant fait le plus d'entrées depuis le début des années 2000.
 Note : Le classement en nombre d'entrées est estimé à partir du chiffre d'affaires et du prix moyen du ticket de l'année de sortie du film.
-Pérou
-Au Pérou, c'est le film français tourné en langue française ayant fait le plus d'entrées jamais recensées par uniFrance (depuis 1994).
-Tchéquie
-À noter que, bien que n'étant pas un film français mais américain, Les Schtroumpfs (2011) est le film de culture francophone européenne ayant fait le plus d'entrées (538 774)[348],[349].
-Turquie
-Islande
-En Islande, avec 64 735 entrées, c'est le 3e film le plus vu au cinéma des films sortis en 2012 après Skyfall et ses 79 483 entrées[70] et après Le Hobbit : Un voyage inattendu[368], ainsi que le film non-anglophone le plus vu de tous les temps en Islande[369].
-Slovaquie
-[387], Base Lumière[169] et UFD[386]
-Croatie
-En Croatie, c'est la 5e meilleure performance en langue française depuis le début des années 2000[388].
-Estonie
-En Estonie, au 31 décembre 2012, avec 38 924 entrées[réf. souhaitée], c'est le film français tourné en langue française ou toute autre langue ayant fait le plus d'entrées depuis qu'uniFrance collecte les données (1994?) ou depuis au moins 1998[169], devant Le Fabuleux Destin d'Amélie Poulain (2002) et ses 21 601 entrées[389],[390] et Le Cinquième Élément (1998) et ses 17 432 entrées[391].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Pérou</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Pérou, c'est le film français tourné en langue française ayant fait le plus d'entrées jamais recensées par uniFrance (depuis 1994).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Tchéquie</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À noter que, bien que n'étant pas un film français mais américain, Les Schtroumpfs (2011) est le film de culture francophone européenne ayant fait le plus d'entrées (538 774),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Islande</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Islande, avec 64 735 entrées, c'est le 3e film le plus vu au cinéma des films sortis en 2012 après Skyfall et ses 79 483 entrées et après Le Hobbit : Un voyage inattendu, ainsi que le film non-anglophone le plus vu de tous les temps en Islande.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Slovaquie</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">, Base Lumière et UFD
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Croatie</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Croatie, c'est la 5e meilleure performance en langue française depuis le début des années 2000.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Exploitation</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Exploitation internationale</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Estonie</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Estonie, au 31 décembre 2012, avec 38 924 entrées[réf. souhaitée], c'est le film français tourné en langue française ou toute autre langue ayant fait le plus d'entrées depuis qu'uniFrance collecte les données (1994?) ou depuis au moins 1998, devant Le Fabuleux Destin d'Amélie Poulain (2002) et ses 21 601 entrées, et Le Cinquième Élément (1998) et ses 17 432 entrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presse
-L'Express salue en Intouchables « une réussite totale. Le film ose tout et c'est à ça qu'on le reconnaît »[405]. Pour Le Nouvel Observateur, Intouchables « fait partie de ces films très rares qui réchauffent le cœur et donnent à réfléchir sur l’insigne fragilité de la condition humaine sans apitoiement ni complaisance »[406]. Le Monde salue la « tendre drôlerie » du film, qui le fait passer « dans une catégorie supérieure, du côté d'une comédie populaire déliée et élégante »[407]. Marianne décrit « Intouchables ou la France telle qu'elle se rêve. Tout ce qu'on n'est pas, qu'on ne vit pas, qu'on n'accepte pas nous est offert dans un film magique qui fait de nous ce que nous rêvons d'être. »[408]
-Télérama, quant à lui, est plutôt partagé. Le critique Frédéric Strauss voit dans ce film « un plaisir fort, jamais forcé, et une sensibilité juste, pudique au fond. »[409] Tandis que Pierre Murat pense qu'« une histoire vraie ne fait pas forcément un bon film. Et ce n'est pas parce qu'il est généreux qu'il est forcément génial. Intouchables ruisselle de bons sentiments, et c'est la barbe ! »[409].
-Le magazine Cahiers du cinéma est lui aussi très négatif vis-à-vis d’Intouchables, qu'il pense comme « condamné à une guimauve dégoûtante, et à un appel déplacé à « ceci est tiré d'une histoire vraie ». »[410]. Le magazine Libération Next du 3 décembre 2011, n'apprécie pas le film et considère que : « ce qu’Intouchables nous montre c’est que, s’il y a des mauvais pauvres comme Driss, c’est parce que les riches n’ont pas su leur transmettre convenablement les principes qui leur permettraient de mieux s’assujettir à un ordre social injuste. Une morale qui rappelle la théorie de la panne des institutions éducatives pour apprendre aux pauvres la soumission à un monde devenu de plus en plus inégalitaire. »[411]. Le journal L'Humanité du 2 décembre 2011, se demande : « Le succès d'Intouchables est-il proportionnel à la détresse sociale actuelle ? »[412]. Aux États-Unis, dans le magazine Variety, le critique Jay Weissberg accuse le film d'un racisme « offensant » qu'il compare à celui de La Case de l'oncle Tom[413],[414].
-Les critiques recensées sur Allociné lui attribuent la note moyenne de 3,7⁄5 au film soit 14,8⁄20[415]. Selon un sondage BVA réalisé pour la Fnac, en partenariat avec Le Parisien et Europe 1, publié jeudi 22 décembre 2011, le triomphe du film constitue pour 52 % des Français l'événement culturel le plus marquant de l'année 2011, devant The Artist et qui talonne la saga Harry Potter[416].
-Livres sur le cinéma
-Dans leur livre Le Personnage[417], Marie-France Briselance et Jean-Claude Morin, historiens et théoriciens du cinéma, remarquent qu'Intouchables est construit sur deux archétypes de personnages, décrits par les Égyptiens d'une Antiquité éloignée de nos jours de plus de 6 000 ans : la légende osirienne[418], basée sur les grands problèmes de l'humanité, ici le deuil et la survie. Cette filiation explique sans doute l'impact sur le grand public du monde entier :
-« Intouchables s’appuie sur deux archétypes de la légende osirienne, même si les auteurs n’en étaient pas forcément conscients en créant les personnages, d’autant qu’ils sont partis d’un récit autobiographique... Driss ne se cache pas derrière une quelconque pitié, celle que les esprits médiocres réservent aux handicapés. Quand il lui faut donner son avis à Philippe, il ne se fait pas prier, sa tendance à se considérer comme étant fait du même bois qu’un riche lui fait aussi oublier que son patron est dépendant de lui pour le moindre désir. Driss ramène petit à petit Philippe sur le versant de la vie, n’hésitant pas à blaguer à propos de son infirmité, une façon de faire la nique au destin, mais surtout — une fois que le jeune a constaté la gravité des dégâts en auscultant à sa manière le corps de son patient — il se conduit avec lui à égalité et ne voit en Philippe que l’être humain... Il force Philippe à affronter la réalité et à se déclarer auprès d’une jeune femme valide avec laquelle il entretient une chaste correspondance depuis de longs mois. Détruit, le corps de Philippe est comme celui d’Osiris, il tomberait en pièces s’il n’était maintenu par une sangle. Sur son fauteuil, la paralysie le fixe dans une position hiératique semblable à celle du « Roi du monde des ténèbres ». Anubis-Driss rechigne à exécuter sur lui des tâches intimes, telles que celle de « lui vider le cul », ce qu’avait fait Anubis en éviscérant la dépouille mortelle reconstituée d’Osiris[419] »
-Spectateurs
-Sur Allociné, les spectateurs lui attribuent 4,5/5 (soit 9/10 ou 18/20)[420].
-Polémique aux États-Unis
-Avant sa sortie en Amérique du Nord, le magazine américain Variety, publie une critique virulente à l'égard du film français. En effet, le journaliste Jay Weissberg accuse les réalisateurs de racisme. Il y écrit que le personnage de Driss est « traité comme un singe de compagnie qui apprend au blanc coincé à s'amuser, en remplaçant Vivaldi par Boogie Wonderland, et en lui montrant comment on bouge sur la piste de danse »[421].
-Box-office
-Avec 19,44 millions d'entrées[422] Intouchables est le deuxième plus gros succès du box-office en France, derrière Bienvenue chez les Ch'tis. Il est devenu en 2012 le film français en langue française le plus vu à l'étranger, détrônant ainsi Le Fabuleux Destin d'Amélie Poulain qui détenait le titre depuis près de dix ans[423]. Intouchables devient aussi le film le plus vu de l'année 2012 dans l'Union européenne, devant Harry Potter et les Reliques de la Mort : Partie 2.
-En février 2013, il est le plus grand succès d'un long métrage français à l'international toutes langues confondues, avec 30 millions d'entrées à l'étranger selon Unifrance, dépassant ainsi Taken 2[424]. Il devient également le film français le plus vu au monde[Note 1] avec 51,5 millions d'entrées au total, et des recettes excédant les 425 millions de dollars. Il garde ce record jusqu'en 2014 où Lucy le fait passer en deuxième position[425].
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Presse</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Express salue en Intouchables « une réussite totale. Le film ose tout et c'est à ça qu'on le reconnaît ». Pour Le Nouvel Observateur, Intouchables « fait partie de ces films très rares qui réchauffent le cœur et donnent à réfléchir sur l’insigne fragilité de la condition humaine sans apitoiement ni complaisance ». Le Monde salue la « tendre drôlerie » du film, qui le fait passer « dans une catégorie supérieure, du côté d'une comédie populaire déliée et élégante ». Marianne décrit « Intouchables ou la France telle qu'elle se rêve. Tout ce qu'on n'est pas, qu'on ne vit pas, qu'on n'accepte pas nous est offert dans un film magique qui fait de nous ce que nous rêvons d'être. »
+Télérama, quant à lui, est plutôt partagé. Le critique Frédéric Strauss voit dans ce film « un plaisir fort, jamais forcé, et une sensibilité juste, pudique au fond. » Tandis que Pierre Murat pense qu'« une histoire vraie ne fait pas forcément un bon film. Et ce n'est pas parce qu'il est généreux qu'il est forcément génial. Intouchables ruisselle de bons sentiments, et c'est la barbe ! ».
+Le magazine Cahiers du cinéma est lui aussi très négatif vis-à-vis d’Intouchables, qu'il pense comme « condamné à une guimauve dégoûtante, et à un appel déplacé à « ceci est tiré d'une histoire vraie ». ». Le magazine Libération Next du 3 décembre 2011, n'apprécie pas le film et considère que : « ce qu’Intouchables nous montre c’est que, s’il y a des mauvais pauvres comme Driss, c’est parce que les riches n’ont pas su leur transmettre convenablement les principes qui leur permettraient de mieux s’assujettir à un ordre social injuste. Une morale qui rappelle la théorie de la panne des institutions éducatives pour apprendre aux pauvres la soumission à un monde devenu de plus en plus inégalitaire. ». Le journal L'Humanité du 2 décembre 2011, se demande : « Le succès d'Intouchables est-il proportionnel à la détresse sociale actuelle ? ». Aux États-Unis, dans le magazine Variety, le critique Jay Weissberg accuse le film d'un racisme « offensant » qu'il compare à celui de La Case de l'oncle Tom,.
+Les critiques recensées sur Allociné lui attribuent la note moyenne de 3,7⁄5 au film soit 14,8⁄20. Selon un sondage BVA réalisé pour la Fnac, en partenariat avec Le Parisien et Europe 1, publié jeudi 22 décembre 2011, le triomphe du film constitue pour 52 % des Français l'événement culturel le plus marquant de l'année 2011, devant The Artist et qui talonne la saga Harry Potter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Livres sur le cinéma</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur livre Le Personnage, Marie-France Briselance et Jean-Claude Morin, historiens et théoriciens du cinéma, remarquent qu'Intouchables est construit sur deux archétypes de personnages, décrits par les Égyptiens d'une Antiquité éloignée de nos jours de plus de 6 000 ans : la légende osirienne, basée sur les grands problèmes de l'humanité, ici le deuil et la survie. Cette filiation explique sans doute l'impact sur le grand public du monde entier :
+« Intouchables s’appuie sur deux archétypes de la légende osirienne, même si les auteurs n’en étaient pas forcément conscients en créant les personnages, d’autant qu’ils sont partis d’un récit autobiographique... Driss ne se cache pas derrière une quelconque pitié, celle que les esprits médiocres réservent aux handicapés. Quand il lui faut donner son avis à Philippe, il ne se fait pas prier, sa tendance à se considérer comme étant fait du même bois qu’un riche lui fait aussi oublier que son patron est dépendant de lui pour le moindre désir. Driss ramène petit à petit Philippe sur le versant de la vie, n’hésitant pas à blaguer à propos de son infirmité, une façon de faire la nique au destin, mais surtout — une fois que le jeune a constaté la gravité des dégâts en auscultant à sa manière le corps de son patient — il se conduit avec lui à égalité et ne voit en Philippe que l’être humain... Il force Philippe à affronter la réalité et à se déclarer auprès d’une jeune femme valide avec laquelle il entretient une chaste correspondance depuis de longs mois. Détruit, le corps de Philippe est comme celui d’Osiris, il tomberait en pièces s’il n’était maintenu par une sangle. Sur son fauteuil, la paralysie le fixe dans une position hiératique semblable à celle du « Roi du monde des ténèbres ». Anubis-Driss rechigne à exécuter sur lui des tâches intimes, telles que celle de « lui vider le cul », ce qu’avait fait Anubis en éviscérant la dépouille mortelle reconstituée d’Osiris »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Spectateurs</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur Allociné, les spectateurs lui attribuent 4,5/5 (soit 9/10 ou 18/20).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Polémique aux États-Unis</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant sa sortie en Amérique du Nord, le magazine américain Variety, publie une critique virulente à l'égard du film français. En effet, le journaliste Jay Weissberg accuse les réalisateurs de racisme. Il y écrit que le personnage de Driss est « traité comme un singe de compagnie qui apprend au blanc coincé à s'amuser, en remplaçant Vivaldi par Boogie Wonderland, et en lui montrant comment on bouge sur la piste de danse ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec 19,44 millions d'entrées Intouchables est le deuxième plus gros succès du box-office en France, derrière Bienvenue chez les Ch'tis. Il est devenu en 2012 le film français en langue française le plus vu à l'étranger, détrônant ainsi Le Fabuleux Destin d'Amélie Poulain qui détenait le titre depuis près de dix ans. Intouchables devient aussi le film le plus vu de l'année 2012 dans l'Union européenne, devant Harry Potter et les Reliques de la Mort : Partie 2.
+En février 2013, il est le plus grand succès d'un long métrage français à l'international toutes langues confondues, avec 30 millions d'entrées à l'étranger selon Unifrance, dépassant ainsi Taken 2. Il devient également le film français le plus vu au monde[Note 1] avec 51,5 millions d'entrées au total, et des recettes excédant les 425 millions de dollars. Il garde ce record jusqu'en 2014 où Lucy le fait passer en deuxième position.
 Le 10 janvier 2012, Intouchables a battu un record en se classant no 1 au box office hebdomadaire français pendant neuf semaines consécutives depuis sa sortie, classement qu'il conservera jusqu'à sa dixième semaine. Pour son rôle dans ce long-métrage, Omar Sy décroche le César du meilleur acteur en 2012. Intouchables a été présélectionné pour la nomination du meilleur film en langue étrangère aux Oscars, mais le 10 janvier 2013, les nominations officielles des Oscars 2013 ont été annoncées et Intouchables n'est finalement pas nommé.
-En octobre 2015, Intouchables est considéré comme l’un des meilleurs films de ces dernières années dans une liste dévoilée par IMDb. Avec une note de 8.6/10, il est nommé meilleur film de l’année 2011[426].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+En octobre 2015, Intouchables est considéré comme l’un des meilleurs films de ces dernières années dans une liste dévoilée par IMDb. Avec une note de 8.6/10, il est nommé meilleur film de l’année 2011.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Récompenses
-36e cérémonie[427] des Japan Academy Prize (2013)
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+36e cérémonie des Japan Academy Prize (2013)
 Prix du meilleur film étranger
 27e Cérémonie des Goyas (2013)
 Prix Goya du meilleur film européen.
@@ -979,10 +2582,10 @@
 Meilleur film en langue étrangère
 Lions tchèques (2012) :
 Meilleur film en langue étrangère
-16e Festival COLCOA du film français à Hollywood (2012)[428] :
+16e Festival COLCOA du film français à Hollywood (2012) :
 Prix du public
 Prix spécial de la critique
-14e Festival du film (en) du Wisconsin à Madison (2012)[429] :
+14e Festival du film (en) du Wisconsin à Madison (2012) :
 Prix du meilleur film
 Prix du public
 Prix Lumières 2012 :
@@ -991,18 +2594,53 @@
 Prix du meilleur film
 Prix du meilleur acteur pour Omar Sy
 Césars 2012 :
-César du meilleur acteur pour Omar Sy[430]
+César du meilleur acteur pour Omar Sy
 24e festival international du film de Tokyo (2011) :
 Tokyo Sakura Grand Prix 2011
 Prix du meilleur acteur pour François Cluzet et Omar Sy
-19e Trophées du Film français (2012)[431] :
+19e Trophées du Film français (2012) :
 Trophée du prix du public TF1 ;
 Trophée du film français ;
 Trophée des Trophées ;
 9e édition du London's Favourite French Film (2013)
 Premier prix
-Nominations
-70e cérémonie des Golden Globes : Nomination au Golden Globe du meilleur film étranger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">70e cérémonie des Golden Globes : Nomination au Golden Globe du meilleur film étranger.
 66e cérémonie des British Academy Film Awards (BAFTA Awards) : Nomination au British Academy Film Award du meilleur film en langue étrangère.
 9 nominations pour les César du cinéma 2012 :
 César du meilleur film
@@ -1017,104 +2655,219 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diffusion télévisée
-En Belgique, le film a été diffusé pour la première fois en clair le 25 novembre 2013 et a réalisé la meilleure audience de l'année avec 820 000 téléspectateurs[432].
-En France, le film est diffusé pour la première fois en clair le 7 décembre 2014 sur TF1 et réalise la 6e meilleure audience de l'année et la meilleure audience de l'année hors matchs de Coupe du Monde[433] avec 13 575 000 téléspectateurs soit 48,9 % de PDA[434].
-Dans les médias
-Intouchables est cité nommément dans les dialogues du long métrage Lolo réalisé en 2015 par Julie Delpy. Dans une conversation avec une passagère du TGV, Karin Viard fait explicitement référence à la séquence du parapente pratiqué en fauteuil roulant.
-Records
-Intouchables détient le record du film le plus rémunérateur de tous les temps, tourné dans une autre langue que l'anglais[435], avec 445 millions de dollars[436]. L'ancien record était détenu par Le Voyage de Chihiro, avec 275 millions de dollars (396 millions de dollars américains corrigé de l'inflation en 2013[437]). C'est également le film français le plus vu en Europe de l'Ouest depuis 2000[104],[438].
-Intouchables est le film qui est resté le plus longtemps numéro 1 du box office français de sa sortie, le 2 novembre 2011 au 10 janvier 2012, soit pendant dix semaines d'affilée, à égalité avec le film Le Dîner de cons qui a réussi également à rester dix semaines consécutives du 15 avril 1998 au 24 juin 1998[439].
-Il détient le record de semaines à plus d'un million d'entrées au box office français, avec neuf semaines, à égalité avec le film Titanic de James Cameron sorti en France en 1998[440].
-Il est le film le plus vu en France de l'année 2011[441].
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Diffusion télévisée</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, le film a été diffusé pour la première fois en clair le 25 novembre 2013 et a réalisé la meilleure audience de l'année avec 820 000 téléspectateurs.
+En France, le film est diffusé pour la première fois en clair le 7 décembre 2014 sur TF1 et réalise la 6e meilleure audience de l'année et la meilleure audience de l'année hors matchs de Coupe du Monde avec 13 575 000 téléspectateurs soit 48,9 % de PDA.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Autour du film</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Dans les médias</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Intouchables est cité nommément dans les dialogues du long métrage Lolo réalisé en 2015 par Julie Delpy. Dans une conversation avec une passagère du TGV, Karin Viard fait explicitement référence à la séquence du parapente pratiqué en fauteuil roulant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Autour du film</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Records</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Intouchables détient le record du film le plus rémunérateur de tous les temps, tourné dans une autre langue que l'anglais, avec 445 millions de dollars. L'ancien record était détenu par Le Voyage de Chihiro, avec 275 millions de dollars (396 millions de dollars américains corrigé de l'inflation en 2013). C'est également le film français le plus vu en Europe de l'Ouest depuis 2000,.
+Intouchables est le film qui est resté le plus longtemps numéro 1 du box office français de sa sortie, le 2 novembre 2011 au 10 janvier 2012, soit pendant dix semaines d'affilée, à égalité avec le film Le Dîner de cons qui a réussi également à rester dix semaines consécutives du 15 avril 1998 au 24 juin 1998.
+Il détient le record de semaines à plus d'un million d'entrées au box office français, avec neuf semaines, à égalité avec le film Titanic de James Cameron sorti en France en 1998.
+Il est le film le plus vu en France de l'année 2011.
 Lors de sa première diffusion en clair sur TF1, le 7 décembre 2014, il a rassemblé 13,6 millions de téléspectateurs[réf. nécessaire].
-Remakes
-En 2016, deux remakes sont sortis. Le film indien Oopiri (en), réalisé par Vamsi Paidipally, est tourné en langues tamoul et télougou. Le second, Inseparables (es), est une version argentine tournée en espagnol et réalisée par Marcos Carnevale.
-The Weinstein Company avait mis une option sur les droits pour faire un remake américain dès 2011[105]. The Upside[442], réalisé par Neil Burger en 2017, ne sort finalement qu'en 2019 en raison de l'affaire Harvey Weinstein et récolte le succès.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Autour du film</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Remakes</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, deux remakes sont sortis. Le film indien Oopiri (en), réalisé par Vamsi Paidipally, est tourné en langues tamoul et télougou. Le second, Inseparables (es), est une version argentine tournée en espagnol et réalisée par Marcos Carnevale.
+The Weinstein Company avait mis une option sur les droits pour faire un remake américain dès 2011. The Upside, réalisé par Neil Burger en 2017, ne sort finalement qu'en 2019 en raison de l'affaire Harvey Weinstein et récolte le succès.
 Une version sud-coréenne, Man of Men, sort en 2019.
-D'autres versions, brésiliennes et turques, sont également prévues[443].
-Le film américain Adam (en) sur le même thème est tourné dès 2011 en réaction au succès d'Intouchables, mais il ne sort que 10 ans plus tard, en 2020. Produite par Gilbert Films (en), cette version n'est pas un remake puisqu'elle est basée sur l'histoire vraie d'un employé de Gilbert Films : l'assistante de vie y est une immigrée plutôt qu'une délinquante, et les deux personnages vivent une histoire d'amour, se marient et ont un enfant[444].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+D'autres versions, brésiliennes et turques, sont également prévues.
+Le film américain Adam (en) sur le même thème est tourné dès 2011 en réaction au succès d'Intouchables, mais il ne sort que 10 ans plus tard, en 2020. Produite par Gilbert Films (en), cette version n'est pas un remake puisqu'elle est basée sur l'histoire vraie d'un employé de Gilbert Films : l'assistante de vie y est une immigrée plutôt qu'une délinquante, et les deux personnages vivent une histoire d'amour, se marient et ont un enfant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intouchables_(film)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>Sorties internationales</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Éditions en vidéo
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Éditions en vidéo</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  France : 28 mars 2012
  Hongrie : 9 mai 2012
  Russie : 28 mai 2012
  Portugal : 18 juillet 2012
  Taïwan : 27 juillet 2012
  Corée du Sud : 20 août 2012
- Allemagne  Suisse (germanophone et italophone)  Autriche[534] : 7 septembre 2012
+ Allemagne  Suisse (germanophone et italophone)  Autriche : 7 septembre 2012
  Italie : 12 septembre 2012
  Pologne : 19 septembre 2012
  Roumanie : 19 septembre 2012
- Pays-Bas : 26 septembre 2012[535]
+ Pays-Bas : 26 septembre 2012
  République tchèque : 10 octobre 2012
- Canada : 16 octobre 2012[536]
+ Canada : 16 octobre 2012
  Espagne : 30 octobre 2012
  Islande : 15 novembre 2012
- Irlande : 21 février 2013[537]
- États-Unis : 5 mars 2013[538]
- Suède : 6 mars 2013[539]
- Norvège : 6 mars 2013[539]
- Danemark : 19 mars 2013[539]
- Japon : 22 mars 2013[540]
- Finlande : 27 mars 2013[539]
- Turquie : sorti (date ?)[541]
- Israël : sorti (date ?)[542]
+ Irlande : 21 février 2013
+ États-Unis : 5 mars 2013
+ Suède : 6 mars 2013
+ Norvège : 6 mars 2013
+ Danemark : 19 mars 2013
+ Japon : 22 mars 2013
+ Finlande : 27 mars 2013
+ Turquie : sorti (date ?)
+ Israël : sorti (date ?)
 Version originale en : français.
 Versions doublées en : allemand, espagnol, italien, portugais, russe et turc.
 Versions sous-titrées en : albanais, allemand, anglais, arabe, basque, bosnien, bulgare, catalan, chinois simplifié, chinois traditionnel, coréen, croate, danois, espagnol, estonien, finnois, français, grec, hébreu, hongrois, indonésien, islandais, italien, japonais, malais, néerlandais, norvégien, persan, polonais, portugais, portugais brésilien, roumain, russe, serbe, slovaque, slovène, suédois, tchèque, turc et vietnamien.</t>
